--- a/biology/Botanique/Buglosse_officinale/Buglosse_officinale.xlsx
+++ b/biology/Botanique/Buglosse_officinale/Buglosse_officinale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anchusa officinalis
 La Buglosse officinale (Anchusa officinalis) est une espèce de plantes herbacées de la famille des Boraginaceae.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anchusa angustifolia L.
 Anchusa procera Besser ex Link</t>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est originaire d'Europe et de Turquie. En France: Littoral de la Mer du Nord ; Briançonnais[1]. De 0 à 1.600 mètres d'altitude. Éteinte en Corse.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est originaire d'Europe et de Turquie. En France: Littoral de la Mer du Nord ; Briançonnais. De 0 à 1.600 mètres d'altitude. Éteinte en Corse.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Aspect général.
@@ -582,8 +600,43 @@
 			Fleurs.
 			Fleurs.
 			Fleur, diamètre 8-9 mm.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Buglosse_officinale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Buglosse_officinale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs (en grappe avec bractées et à tube floral droit): bleu, rose
 Période de floraison : avril-octobre
 Inflorescence : racème de cymes unipares scorpioïdes
@@ -596,8 +649,43 @@
 Habitat type : friches vivaces mésoxérophiles, médioeuropéennes
 Aire de répartition : Europe méridionale
 Données d'après : Julve, Ph., 1998 ff. - Baseflor. Index botanique, écologique et chorologique de la flore de France. Version : 23 avril 2004.
-Interactions biologiques
-La larve du lépidoptère Ethmia bipunctella se nourrit sur la Buglosse officinale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Buglosse_officinale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Buglosse_officinale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Interactions biologiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La larve du lépidoptère Ethmia bipunctella se nourrit sur la Buglosse officinale.
 </t>
         </is>
       </c>
